--- a/OrbitalShaker_PartsList.xlsx
+++ b/OrbitalShaker_PartsList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Electronics Parts" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="292">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">KJ-201BD</t>
   </si>
   <si>
-    <t xml:space="preserve">M4 nut</t>
+    <t xml:space="preserve">M4 Nut</t>
   </si>
   <si>
     <t xml:space="preserve">M4 zinc-plated steel nut (pack of 100)</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">M4-HFST-Z100-</t>
   </si>
   <si>
-    <t xml:space="preserve">M4 washer</t>
+    <t xml:space="preserve">M4 Washer</t>
   </si>
   <si>
     <t xml:space="preserve">M4 zinc-plated steel washer (pack of 100)</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">DM4-FASTWAZ100DIN125</t>
   </si>
   <si>
-    <t xml:space="preserve">M4×12 screw</t>
+    <t xml:space="preserve">M4×12 Screw</t>
   </si>
   <si>
     <t xml:space="preserve">M4 12mm zinc-plated pan head screw (pack of 100)</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">M4 12 PRSTMC Z100</t>
   </si>
   <si>
-    <t xml:space="preserve">M3×10 screw</t>
+    <t xml:space="preserve">M3×10 Screw</t>
   </si>
   <si>
     <t xml:space="preserve">M3 10mm countersunk zinc-plated screw (pack of 100)</t>
@@ -525,6 +525,18 @@
   </si>
   <si>
     <t xml:space="preserve">2214009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40mm Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 VDC Fan, 60mA, 40mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2816685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC002106</t>
   </si>
   <si>
     <t xml:space="preserve">30V/1A AC Adaptor</t>
@@ -737,6 +749,129 @@
     <t xml:space="preserve">All Purpose</t>
   </si>
   <si>
+    <t xml:space="preserve">Scissors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common scissors (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B00XP1V0UU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford 13cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine tip permanent marker pen (not black, any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staedtler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B005DPPQAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruler 30 cm (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B000NMBTUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldering Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweezers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchmakers tweezers (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duratool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3127692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1PK-125T-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solder Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solder flux (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip Quik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1850220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD291NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solder Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin solder wire (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3262209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D03341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldering Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldering station suitable for SMD (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metcal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1560738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl alcohol for cleaning (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B079YVPZDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Tub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarine tub or something similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old toothbrush or stiff paintbrush</t>
+  </si>
+  <si>
     <t xml:space="preserve">Electrical Tape</t>
   </si>
   <si>
@@ -747,136 +882,6 @@
   </si>
   <si>
     <t xml:space="preserve">PVC TAPE 1920B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scissors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common scissors (any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00XP1V0UU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford 13cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine tip permanent marker pen (not black, any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staedtler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B005DPPQAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruler 30 cm (any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q Connect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B000NMBTUK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldering Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tweezers</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Watchmakers tweezers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (any make)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Duratool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3127692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PK-125T-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solder Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solder flux (any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chip Quik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1850220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD291NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solder Wire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thin solder wire (any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3262209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D03341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldering Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldering station suitable for SMD (any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metcal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1560738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS-900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isopropyl alcohol for cleaning (any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B079YVPZDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D Printing</t>
   </si>
   <si>
     <t xml:space="preserve">3D Printer</t>
@@ -959,7 +964,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1001,11 +1006,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1107,7 +1107,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2242,16 +2242,16 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
@@ -2342,7 +2342,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2579,20 +2579,20 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2668,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>167</v>
@@ -2680,20 +2680,20 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I3" s="1" t="n">
-        <v>23.37</v>
+        <v>2.11</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">I3*B3</f>
-        <v>23.37</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,32 +2702,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.73</v>
+        <v>23.37</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">I4*B4</f>
-        <v>2.92</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,22 +2739,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>35.71</v>
@@ -2773,22 +2773,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>0.315</v>
@@ -2807,22 +2807,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I7" s="11" t="n">
         <v>0.315</v>
@@ -2841,22 +2841,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I8" s="11" t="n">
         <v>32.72</v>
@@ -2875,22 +2875,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I9" s="11" t="n">
         <v>2.01</v>
@@ -2914,14 +2914,14 @@
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="n">
         <f aca="false">SUM(J2:J9)</f>
-        <v>149.67</v>
+        <v>155.19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="2214009"/>
-    <hyperlink ref="G3" r:id="rId2" display="2771453"/>
-    <hyperlink ref="G4" r:id="rId3" display="1466738"/>
+    <hyperlink ref="G3" r:id="rId2" display="2816685"/>
+    <hyperlink ref="G4" r:id="rId3" display="2771453"/>
     <hyperlink ref="G5" r:id="rId4" display="4621906"/>
     <hyperlink ref="G6" r:id="rId5" display="2528081"/>
     <hyperlink ref="G7" r:id="rId6" display="2528174"/>
@@ -2943,10 +2943,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2955,11 +2955,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -3018,22 +3018,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I3" s="16" t="n">
         <v>8.77</v>
@@ -3052,22 +3052,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I4" s="16" t="n">
         <v>10.71</v>
@@ -3086,22 +3086,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I5" s="17" t="n">
         <v>108.59</v>
@@ -3120,22 +3120,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I6" s="17" t="n">
         <v>30</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3168,22 +3168,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I8" s="17" t="n">
         <v>1.58</v>
@@ -3202,29 +3202,29 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I9" s="17" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="J9" s="17" t="n">
         <f aca="false">I9*B9</f>
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,29 +3236,29 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <v>733449</v>
       </c>
       <c r="I10" s="17" t="n">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="J10" s="17" t="n">
         <f aca="false">I10*B10</f>
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,111 +3270,111 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="11" t="n">
-        <v>733449</v>
+        <v>235</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="I11" s="17" t="n">
-        <v>1.66</v>
+        <v>0.59</v>
       </c>
       <c r="J11" s="17" t="n">
         <f aca="false">I11*B11</f>
-        <v>1.66</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="n">
         <f aca="false">1+A11</f>
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12" s="17" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J12" s="17" t="n">
-        <f aca="false">I12*B12</f>
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <f aca="false">I13*B13</f>
+        <v>3.22</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="n">
-        <f aca="false">1+A12</f>
+        <f aca="false">1+A13</f>
         <v>10</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I14" s="17" t="n">
-        <v>3.22</v>
+        <v>11.94</v>
       </c>
       <c r="J14" s="17" t="n">
         <f aca="false">I14*B14</f>
-        <v>3.22</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,29 +3386,29 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I15" s="17" t="n">
-        <v>11.94</v>
+        <v>5.18</v>
       </c>
       <c r="J15" s="17" t="n">
         <f aca="false">I15*B15</f>
-        <v>11.94</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,70 +3420,48 @@
         <v>1</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I16" s="17" t="n">
-        <v>5.18</v>
+        <v>187</v>
       </c>
       <c r="J16" s="17" t="n">
         <f aca="false">I16*B16</f>
-        <v>5.18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="n">
         <f aca="false">1+A16</f>
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I17" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="J17" s="17" t="n">
-        <f aca="false">I17*B17</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
-        <f aca="false">1+A17</f>
-        <v>14</v>
-      </c>
       <c r="B18" s="18" t="n">
         <v>1</v>
       </c>
@@ -3494,7 +3472,7 @@
         <v>257</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>258</v>
@@ -3514,59 +3492,80 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="n">
+        <f aca="false">1+A18</f>
+        <v>14</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="D19" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="n">
-        <f aca="false">1+A18</f>
+        <f aca="false">1+A19</f>
         <v>15</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>264</v>
-      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="n">
+        <f aca="false">1+A20</f>
+        <v>16</v>
+      </c>
+      <c r="B21" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="E21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J21" s="17" t="n">
+        <f aca="false">I21*B21</f>
+        <v>1.18</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="n">
@@ -3577,178 +3576,218 @@
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>215</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="I22" s="17" t="n">
-        <v>44.99</v>
-      </c>
-      <c r="J22" s="17" t="n">
-        <f aca="false">I22*B22</f>
-        <v>44.99</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="n">
+      <c r="A23" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="n">
         <f aca="false">1+A22</f>
         <v>17</v>
       </c>
-      <c r="B23" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="B24" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="17" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J23" s="17" t="n">
-        <f aca="false">I23*B23</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
-        <f aca="false">1+A23</f>
-        <v>18</v>
-      </c>
-      <c r="B24" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="E24" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="G24" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="I24" s="17" t="n">
-        <v>7.32</v>
+        <v>44.99</v>
       </c>
       <c r="J24" s="17" t="n">
         <f aca="false">I24*B24</f>
-        <v>7.32</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="n">
         <f aca="false">1+A24</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="11" t="n">
-        <v>20150</v>
-      </c>
       <c r="I25" s="17" t="n">
-        <v>4.49</v>
+        <v>0.44</v>
       </c>
       <c r="J25" s="17" t="n">
         <f aca="false">I25*B25</f>
-        <v>4.49</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="n">
         <f aca="false">1+A25</f>
+        <v>19</v>
+      </c>
+      <c r="B26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I26" s="17" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="J26" s="17" t="n">
+        <f aca="false">I26*B26</f>
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
+        <f aca="false">1+A26</f>
         <v>20</v>
       </c>
-      <c r="B26" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>20150</v>
+      </c>
+      <c r="I27" s="17" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J27" s="17" t="n">
+        <f aca="false">I27*B27</f>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="n">
+        <f aca="false">1+A27</f>
+        <v>21</v>
+      </c>
+      <c r="B28" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="5" t="n">
-        <f aca="false">SUM(J3:J26)</f>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="5" t="n">
+        <f aca="false">SUM(J3:J28)</f>
         <v>435.84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="375238"/>
@@ -3756,20 +3795,20 @@
     <hyperlink ref="G5" r:id="rId3" display="829-6561"/>
     <hyperlink ref="G6" r:id="rId4" display="123-1930"/>
     <hyperlink ref="G8" r:id="rId5" display="B0001OZI48"/>
-    <hyperlink ref="G9" r:id="rId6" display="152346"/>
-    <hyperlink ref="G10" r:id="rId7" display="B00XP1V0UU"/>
-    <hyperlink ref="G11" r:id="rId8" display="B005DPPQAG"/>
-    <hyperlink ref="G12" r:id="rId9" display="B000NMBTUK"/>
-    <hyperlink ref="G14" r:id="rId10" display="3127692"/>
-    <hyperlink ref="G15" r:id="rId11" display="1850220"/>
-    <hyperlink ref="G16" r:id="rId12" display="3262209"/>
-    <hyperlink ref="G17" r:id="rId13" display="1560738"/>
-    <hyperlink ref="G18" r:id="rId14" display="B079YVPZDF"/>
-    <hyperlink ref="G20" r:id="rId15" display="uPrint SE Plus"/>
-    <hyperlink ref="G22" r:id="rId16" display="B00IINANZ8"/>
-    <hyperlink ref="G23" r:id="rId17" display="378124"/>
-    <hyperlink ref="G24" r:id="rId18" display="2103261"/>
-    <hyperlink ref="G25" r:id="rId19" display="B001PNBC0I"/>
+    <hyperlink ref="G9" r:id="rId6" display="B00XP1V0UU"/>
+    <hyperlink ref="G10" r:id="rId7" display="B005DPPQAG"/>
+    <hyperlink ref="G11" r:id="rId8" display="B000NMBTUK"/>
+    <hyperlink ref="G13" r:id="rId9" display="3127692"/>
+    <hyperlink ref="G14" r:id="rId10" display="1850220"/>
+    <hyperlink ref="G15" r:id="rId11" display="3262209"/>
+    <hyperlink ref="G16" r:id="rId12" display="1560738"/>
+    <hyperlink ref="G18" r:id="rId13" display="B079YVPZDF"/>
+    <hyperlink ref="G21" r:id="rId14" display="152346"/>
+    <hyperlink ref="G22" r:id="rId15" display="uPrint SE Plus"/>
+    <hyperlink ref="G24" r:id="rId16" display="B00IINANZ8"/>
+    <hyperlink ref="G25" r:id="rId17" display="378124"/>
+    <hyperlink ref="G26" r:id="rId18" display="2103261"/>
+    <hyperlink ref="G27" r:id="rId19" display="B001PNBC0I"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/OrbitalShaker_PartsList.xlsx
+++ b/OrbitalShaker_PartsList.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Electronics Parts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Laboratory Parts" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Laboratory Parts" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Electronics Parts" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Fixings" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="LED Illuminator Parts" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Tools" sheetId="5" state="visible" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="293">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -32,34 +32,49 @@
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Price [£]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total [£]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbital Shaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eBay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283712826465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KJ-201BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Price [£]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Price [£]</t>
-  </si>
-  <si>
     <t xml:space="preserve">10u/50V</t>
   </si>
   <si>
-    <t xml:space="preserve">10µF/50V 1206 ceramic capacitor (pack of 5)</t>
+    <t xml:space="preserve">10µF/50V X5R 1206 ceramic capacitor (pack of 5)</t>
   </si>
   <si>
     <t xml:space="preserve">Farnell</t>
@@ -432,21 +447,6 @@
   </si>
   <si>
     <t xml:space="preserve">SPC15494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbital Shaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eBay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283712826465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KJ-201BD</t>
   </si>
   <si>
     <t xml:space="preserve">M4 Nut</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">Clear Acrylic</t>
   </si>
   <si>
-    <t xml:space="preserve">4 mm clear acrylic sheet (any make, &gt; 30 cm × 20 cm)</t>
+    <t xml:space="preserve">4 mm clear acrylic sheet (any make, &gt; 30cm×20cm)</t>
   </si>
   <si>
     <t xml:space="preserve">RS</t>
@@ -848,6 +848,18 @@
     <t xml:space="preserve">PS-900</t>
   </si>
   <si>
+    <t xml:space="preserve">Electrical Tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVC Electrical Insulation tape (any make)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVC TAPE 1920B</t>
+  </si>
+  <si>
     <t xml:space="preserve">IPA</t>
   </si>
   <si>
@@ -872,16 +884,7 @@
     <t xml:space="preserve">Old toothbrush or stiff paintbrush</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Tape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVC Electrical Insulation tape (any make)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVC TAPE 1920B</t>
+    <t xml:space="preserve">3D Printing</t>
   </si>
   <si>
     <t xml:space="preserve">3D Printer</t>
@@ -964,7 +967,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -988,14 +991,27 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1016,12 +1032,68 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1050,8 +1122,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,72 +1171,104 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1144,1051 +1288,1169 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ31"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="n">
+        <v>95.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="283712826465"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="7.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="13" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="14" t="n">
         <v>0.525</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="14" t="n">
         <f aca="false">5*I2</f>
         <v>2.625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="13" t="n">
         <f aca="false">1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="n">
+      <c r="B3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="14" t="n">
         <v>0.679</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="14" t="n">
         <f aca="false">I3*B3</f>
         <v>0.679</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="13" t="n">
         <f aca="false">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="n">
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="14" t="n">
         <v>0.0341</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="14" t="n">
         <f aca="false">10*I4</f>
         <v>0.341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="13" t="n">
         <f aca="false">1+A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="n">
+      <c r="B5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="14" t="n">
         <v>1.29</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="14" t="n">
         <f aca="false">I5*B5</f>
         <v>1.29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="13" t="n">
         <f aca="false">1+A5</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="B6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="14" t="n">
         <v>8.23</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="14" t="n">
         <f aca="false">I6*B6</f>
         <v>8.23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="13" t="n">
         <f aca="false">1+A6</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="n">
+      <c r="B7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="14" t="n">
         <v>751.0052</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="14" t="n">
         <v>0.103</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="14" t="n">
         <f aca="false">I7*10</f>
         <v>1.03</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="13" t="n">
         <f aca="false">1+A7</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="1" t="n">
+      <c r="B8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="14" t="n">
         <v>0.836</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="14" t="n">
         <f aca="false">I8*10</f>
         <v>8.36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="13" t="n">
         <f aca="false">1+A8</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="n">
+      <c r="B9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="14" t="n">
         <v>1.84</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="14" t="n">
         <f aca="false">I9*B9</f>
         <v>1.84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="13" t="n">
         <f aca="false">1+A9</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1" t="n">
+      <c r="C10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="14" t="n">
         <v>0.481</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="14" t="n">
         <f aca="false">I10*B10</f>
         <v>2.886</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="13" t="n">
         <f aca="false">1+A10</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="1" t="n">
+      <c r="B11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="14" t="n">
         <v>0.0156</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="14" t="n">
         <f aca="false">I11*50</f>
         <v>0.78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="13" t="n">
         <f aca="false">1+A11</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="1" t="n">
+      <c r="B12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="14" t="n">
         <v>0.0262</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="14" t="n">
         <f aca="false">I12*50</f>
         <v>1.31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="13" t="n">
         <f aca="false">1+A12</f>
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="1" t="n">
+      <c r="B13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="14" t="n">
         <v>0.265</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="14" t="n">
         <f aca="false">I13*5</f>
         <v>1.325</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="13" t="n">
         <f aca="false">1+A13</f>
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1" t="n">
+      <c r="C14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="14" t="n">
         <v>0.0038</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="14" t="n">
         <f aca="false">I14*10</f>
         <v>0.038</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="13" t="n">
         <f aca="false">1+A14</f>
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="1" t="n">
+      <c r="B15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="14" t="n">
         <v>0.0038</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="14" t="n">
         <f aca="false">I15*10</f>
         <v>0.038</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="13" t="n">
         <f aca="false">1+A15</f>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="1" t="n">
+      <c r="B16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="14" t="n">
         <v>0.0447</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="14" t="n">
         <f aca="false">I16*10</f>
         <v>0.447</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="13" t="n">
         <f aca="false">1+A16</f>
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="1" t="n">
+      <c r="B17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="14" t="n">
         <v>0.0034</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="14" t="n">
         <f aca="false">I17*10</f>
         <v>0.034</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="13" t="n">
         <f aca="false">1+A17</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="1" t="n">
+      <c r="B18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="14" t="n">
         <v>0.0034</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="14" t="n">
         <f aca="false">I18*10</f>
         <v>0.034</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="13" t="n">
         <f aca="false">1+A18</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="1" t="n">
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="14" t="n">
         <v>0.0035</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="J19" s="14" t="n">
         <f aca="false">I19*10</f>
         <v>0.035</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="13" t="n">
         <f aca="false">1+A19</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="1" t="n">
+      <c r="B20" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="14" t="n">
         <v>0.0037</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="J20" s="14" t="n">
         <f aca="false">I20*10</f>
         <v>0.037</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="13" t="n">
         <f aca="false">1+A20</f>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="1" t="n">
+      <c r="B21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="14" t="n">
         <v>0.0038</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="J21" s="14" t="n">
         <f aca="false">I21*10</f>
         <v>0.038</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="13" t="n">
         <f aca="false">1+A21</f>
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="1" t="n">
+      <c r="B22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="14" t="n">
         <v>0.0034</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="J22" s="14" t="n">
         <f aca="false">I22*10</f>
         <v>0.034</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="13" t="n">
         <f aca="false">1+A22</f>
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="1" t="n">
+      <c r="B23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="14" t="n">
         <v>0.0034</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="J23" s="14" t="n">
         <f aca="false">I23*10</f>
         <v>0.034</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="13" t="n">
         <f aca="false">1+A23</f>
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="1" t="n">
+      <c r="B24" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="14" t="n">
         <v>0.0035</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="J24" s="14" t="n">
         <f aca="false">I24*10</f>
         <v>0.035</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="13" t="n">
         <f aca="false">1+A24</f>
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="1" t="n">
+      <c r="B25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="14" t="n">
         <v>0.0034</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="J25" s="14" t="n">
         <f aca="false">I25*10</f>
         <v>0.034</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="13" t="n">
         <f aca="false">1+A25</f>
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="1" t="n">
+      <c r="B26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="14" t="n">
         <v>0.0083</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="J26" s="14" t="n">
         <f aca="false">I26*10</f>
         <v>0.083</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="13" t="n">
         <f aca="false">1+A26</f>
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="1" t="n">
+      <c r="C27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="14" t="n">
         <v>0.0423</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="J27" s="14" t="n">
         <f aca="false">I27*10</f>
         <v>0.423</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="13" t="n">
         <f aca="false">1+A27</f>
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="1" t="n">
+      <c r="B28" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="16" t="n">
         <v>2.6</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="J28" s="16" t="n">
         <f aca="false">I28*B28</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="13" t="n">
         <f aca="false">1+A28</f>
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="1" t="n">
+      <c r="B29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="14" t="n">
         <v>2.48</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="J29" s="14" t="n">
         <f aca="false">I29*B29</f>
         <v>2.48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="1" t="n">
+      <c r="B30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="14" t="n">
         <v>0.133</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="J30" s="14" t="n">
         <f aca="false">10*I30</f>
         <v>1.33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="5" t="n">
+      <c r="A31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19" t="n">
         <f aca="false">SUM(J2:J30)</f>
         <v>38.45</v>
       </c>
@@ -2226,107 +2488,8 @@
     <hyperlink ref="G30" r:id="rId29" display="2668408"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>95.3</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="n">
-        <v>95.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="283712826465"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.39375" right="0.39375" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2342,213 +2505,226 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="42.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="7.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="n">
         <v>1.59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <f aca="false">1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="n">
         <v>1.14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <f aca="false">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="n">
         <v>2.08</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <f aca="false">1+A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="n">
         <v>1.64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <f aca="false">1+A5</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="20" t="n">
         <v>0.73</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="20" t="n">
         <f aca="false">I6*B6</f>
         <v>2.92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="5" t="n">
+      <c r="A7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25" t="n">
         <f aca="false">SUM(J2:J6)</f>
         <v>9.37</v>
       </c>
@@ -2562,8 +2738,8 @@
     <hyperlink ref="G6" r:id="rId5" display="1466738"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.472222222222222" right="0.472222222222222" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2579,340 +2755,341 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="20" t="n">
         <v>9009079</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="20" t="n">
         <v>25.84</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="20" t="n">
         <f aca="false">I2*B2</f>
         <v>51.68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <f aca="false">1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="20" t="n">
         <v>2.11</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="20" t="n">
         <f aca="false">I3*B3</f>
         <v>8.44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <f aca="false">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="20" t="n">
         <v>23.37</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="20" t="n">
         <f aca="false">I4*B4</f>
         <v>23.37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <f aca="false">1+A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="28" t="n">
         <v>35.71</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="28" t="n">
         <f aca="false">B5*I5</f>
         <v>35.71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <f aca="false">1+A5</f>
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="28" t="n">
         <v>0.315</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="28" t="n">
         <f aca="false">B6*I6</f>
         <v>0.63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <f aca="false">1+A6</f>
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="28" t="n">
         <v>0.315</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="28" t="n">
         <f aca="false">B7*I7</f>
         <v>0.63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <f aca="false">1+A7</f>
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="28" t="n">
         <v>32.72</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="28" t="n">
         <f aca="false">B8*I8</f>
         <v>32.72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <f aca="false">1+A8</f>
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="28" t="n">
         <v>2.01</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="28" t="n">
         <f aca="false">B9*I9</f>
         <v>2.01</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="5" t="n">
+      <c r="A10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25" t="n">
         <f aca="false">SUM(J2:J9)</f>
         <v>155.19</v>
       </c>
@@ -2929,8 +3106,8 @@
     <hyperlink ref="G9" r:id="rId8" display="2777066"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.511805555555555" right="0.472222222222222" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2946,847 +3123,851 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="2" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="16" t="n">
+      <c r="I3" s="34" t="n">
         <v>8.77</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="35" t="n">
         <f aca="false">I3*B3</f>
         <v>8.77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="2" t="n">
         <f aca="false">1+A3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="I4" s="16" t="n">
+      <c r="I4" s="34" t="n">
         <v>10.71</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="35" t="n">
         <f aca="false">I4*B4</f>
         <v>10.71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="2" t="n">
         <f aca="false">1+A4</f>
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="35" t="n">
         <v>108.59</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="35" t="n">
         <f aca="false">I5*B5</f>
         <v>108.59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="2" t="n">
         <f aca="false">1+A5</f>
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="17" t="n">
+      <c r="I6" s="35" t="n">
         <v>30</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="35" t="n">
         <f aca="false">I6*B6</f>
         <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <f aca="false">1+A6</f>
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="35" t="n">
         <v>1.58</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="35" t="n">
         <f aca="false">I8*B8</f>
         <v>1.58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
+      <c r="A9" s="2" t="n">
         <f aca="false">1+A8</f>
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="35" t="n">
         <v>1.39</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="35" t="n">
         <f aca="false">I9*B9</f>
         <v>1.39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
+      <c r="A10" s="2" t="n">
         <f aca="false">1+A9</f>
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="28" t="n">
         <v>733449</v>
       </c>
-      <c r="I10" s="17" t="n">
+      <c r="I10" s="35" t="n">
         <v>1.66</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="35" t="n">
         <f aca="false">I10*B10</f>
         <v>1.66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+      <c r="A11" s="2" t="n">
         <f aca="false">1+A10</f>
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="35" t="n">
         <v>0.59</v>
       </c>
-      <c r="J11" s="17" t="n">
+      <c r="J11" s="35" t="n">
         <f aca="false">I11*B11</f>
         <v>0.59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="2" t="n">
         <f aca="false">1+A11</f>
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="I13" s="17" t="n">
+      <c r="I13" s="35" t="n">
         <v>3.22</v>
       </c>
-      <c r="J13" s="17" t="n">
+      <c r="J13" s="35" t="n">
         <f aca="false">I13*B13</f>
         <v>3.22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="n">
+      <c r="A14" s="2" t="n">
         <f aca="false">1+A13</f>
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="17" t="n">
+      <c r="I14" s="35" t="n">
         <v>11.94</v>
       </c>
-      <c r="J14" s="17" t="n">
+      <c r="J14" s="35" t="n">
         <f aca="false">I14*B14</f>
         <v>11.94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="2" t="n">
         <f aca="false">1+A14</f>
         <v>11</v>
       </c>
-      <c r="B15" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="35" t="n">
         <v>5.18</v>
       </c>
-      <c r="J15" s="17" t="n">
+      <c r="J15" s="35" t="n">
         <f aca="false">I15*B15</f>
         <v>5.18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="n">
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <f aca="false">1+A15</f>
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I16" s="17" t="n">
+      <c r="I16" s="35" t="n">
         <v>187</v>
       </c>
-      <c r="J16" s="17" t="n">
+      <c r="J16" s="35" t="n">
         <f aca="false">I16*B16</f>
         <v>187</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <f aca="false">1+A16</f>
         <v>13</v>
       </c>
-      <c r="B18" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B17" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D17" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="I17" s="35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J17" s="35" t="n">
+        <f aca="false">I17*B17</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <f aca="false">1+A17</f>
+        <v>14</v>
+      </c>
+      <c r="B18" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="I18" s="17" t="n">
+      <c r="F18" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="35" t="n">
         <v>6.79</v>
       </c>
-      <c r="J18" s="17" t="n">
+      <c r="J18" s="35" t="n">
         <f aca="false">I18*B18</f>
         <v>6.79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+      <c r="A19" s="2" t="n">
         <f aca="false">1+A18</f>
-        <v>14</v>
-      </c>
-      <c r="B19" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="2" t="n">
         <f aca="false">1+A19</f>
-        <v>15</v>
-      </c>
-      <c r="B20" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <f aca="false">1+A20</f>
-        <v>16</v>
-      </c>
-      <c r="B21" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="J21" s="17" t="n">
-        <f aca="false">I21*B21</f>
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
-        <f aca="false">1+A20</f>
-        <v>16</v>
-      </c>
-      <c r="B22" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="A23" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
+      <c r="A24" s="2" t="n">
         <f aca="false">1+A22</f>
-        <v>17</v>
-      </c>
-      <c r="B24" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="I24" s="17" t="n">
+      <c r="H24" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="35" t="n">
         <v>44.99</v>
       </c>
-      <c r="J24" s="17" t="n">
+      <c r="J24" s="35" t="n">
         <f aca="false">I24*B24</f>
         <v>44.99</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <f aca="false">1+A24</f>
-        <v>18</v>
-      </c>
-      <c r="B25" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="I25" s="17" t="n">
+      <c r="H25" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="I25" s="35" t="n">
         <v>0.44</v>
       </c>
-      <c r="J25" s="17" t="n">
+      <c r="J25" s="35" t="n">
         <f aca="false">I25*B25</f>
         <v>0.44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
+      <c r="A26" s="2" t="n">
         <f aca="false">1+A25</f>
-        <v>19</v>
-      </c>
-      <c r="B26" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="I26" s="17" t="n">
+      <c r="H26" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="I26" s="35" t="n">
         <v>7.32</v>
       </c>
-      <c r="J26" s="17" t="n">
+      <c r="J26" s="35" t="n">
         <f aca="false">I26*B26</f>
         <v>7.32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="n">
+    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <f aca="false">1+A26</f>
-        <v>20</v>
-      </c>
-      <c r="B27" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="G27" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27" s="28" t="n">
         <v>20150</v>
       </c>
-      <c r="I27" s="17" t="n">
+      <c r="I27" s="35" t="n">
         <v>4.49</v>
       </c>
-      <c r="J27" s="17" t="n">
+      <c r="J27" s="35" t="n">
         <f aca="false">I27*B27</f>
         <v>4.49</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <f aca="false">1+A27</f>
-        <v>21</v>
-      </c>
-      <c r="B28" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="D28" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="5" t="n">
+      <c r="A29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="25" t="n">
         <f aca="false">SUM(J3:J28)</f>
         <v>435.84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A23:J23"/>
   </mergeCells>
   <hyperlinks>
@@ -3802,8 +3983,8 @@
     <hyperlink ref="G14" r:id="rId10" display="1850220"/>
     <hyperlink ref="G15" r:id="rId11" display="3262209"/>
     <hyperlink ref="G16" r:id="rId12" display="1560738"/>
-    <hyperlink ref="G18" r:id="rId13" display="B079YVPZDF"/>
-    <hyperlink ref="G21" r:id="rId14" display="152346"/>
+    <hyperlink ref="G17" r:id="rId13" display="152346"/>
+    <hyperlink ref="G18" r:id="rId14" display="B079YVPZDF"/>
     <hyperlink ref="G22" r:id="rId15" display="uPrint SE Plus"/>
     <hyperlink ref="G24" r:id="rId16" display="B00IINANZ8"/>
     <hyperlink ref="G25" r:id="rId17" display="378124"/>
@@ -3812,7 +3993,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
